--- a/V10/messdaten/V10_cleaned.xlsx
+++ b/V10/messdaten/V10_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SS21\SDT\LaborVersuche\V10\messdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F64463D-E37B-497B-882D-F3F7852BCD9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA0A545-5F51-46AA-9D4F-A8F6A5E06FE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{F436008B-C3EF-4423-BB1E-AF39912100BA}"/>
+    <workbookView xWindow="12396" yWindow="2808" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{F436008B-C3EF-4423-BB1E-AF39912100BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ra226-1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
   <si>
     <t>Fe</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>565 - 659 keV</t>
-  </si>
-  <si>
-    <t>4.0+3.95+3.95+3,45+1.5+1.15</t>
   </si>
   <si>
     <t>11+13</t>
@@ -931,11 +928,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2237F2-3B7C-46F2-8F40-BA592916171A}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>5991</v>
@@ -1386,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C519D6E2-DDE4-434A-94CC-17C2F4399789}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>873.1</v>
@@ -1457,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>413.5</v>
@@ -1497,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>12.94</v>
